--- a/complete_metadata_excel.xlsx
+++ b/complete_metadata_excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1667917/Documents/Pipelines/S_Aureus_Pipelines/S_Aureus_Methylation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D655A686-5797-D846-B76C-C41009B7E7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32FF98-2D35-6143-B438-132EF95BE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="5920" yWindow="4620" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="complete_metadata" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="328">
   <si>
     <t>C19</t>
   </si>
@@ -1011,12 +1011,18 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>and from 6 samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 6 samples </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1877,16 +1883,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="71.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2972,10 +2979,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C99" t="s">
         <v>322</v>
@@ -2983,21 +2990,21 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C100" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>208</v>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="C101" t="s">
         <v>322</v>
@@ -3005,10 +3012,10 @@
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C102" t="s">
         <v>322</v>
@@ -3016,10 +3023,10 @@
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
         <v>322</v>
@@ -3027,10 +3034,10 @@
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C104" t="s">
         <v>322</v>
@@ -3038,10 +3045,10 @@
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C105" t="s">
         <v>322</v>
@@ -3049,10 +3056,10 @@
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B106" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
         <v>322</v>
@@ -3060,10 +3067,10 @@
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C107" t="s">
         <v>322</v>
@@ -3071,10 +3078,10 @@
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
         <v>322</v>
@@ -3082,10 +3089,10 @@
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C109" t="s">
         <v>322</v>
@@ -3093,10 +3100,10 @@
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C110" t="s">
         <v>322</v>
@@ -3104,10 +3111,10 @@
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
         <v>322</v>
@@ -3115,10 +3122,10 @@
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
         <v>322</v>
@@ -3126,10 +3133,10 @@
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B113" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C113" t="s">
         <v>322</v>
@@ -3137,10 +3144,10 @@
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C114" t="s">
         <v>322</v>
@@ -3148,10 +3155,10 @@
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B115" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C115" t="s">
         <v>322</v>
@@ -3159,10 +3166,10 @@
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C116" t="s">
         <v>322</v>
@@ -3170,10 +3177,10 @@
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C117" t="s">
         <v>322</v>
@@ -3181,10 +3188,10 @@
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C118" t="s">
         <v>322</v>
@@ -3192,10 +3199,10 @@
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C119" t="s">
         <v>322</v>
@@ -3203,10 +3210,10 @@
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C120" t="s">
         <v>322</v>
@@ -3214,10 +3221,10 @@
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C121" t="s">
         <v>322</v>
@@ -3225,10 +3232,10 @@
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B122" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C122" t="s">
         <v>322</v>
@@ -3236,10 +3243,10 @@
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B123" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C123" t="s">
         <v>322</v>
@@ -3247,10 +3254,10 @@
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B124" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C124" t="s">
         <v>322</v>
@@ -3258,10 +3265,10 @@
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B125" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C125" t="s">
         <v>322</v>
@@ -3269,10 +3276,10 @@
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C126" t="s">
         <v>322</v>
@@ -3280,10 +3287,10 @@
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C127" t="s">
         <v>322</v>
@@ -3291,10 +3298,10 @@
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B128" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C128" t="s">
         <v>322</v>
@@ -3302,10 +3309,10 @@
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B129" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C129" t="s">
         <v>322</v>
@@ -3313,10 +3320,10 @@
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B130" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C130" t="s">
         <v>322</v>
@@ -3324,10 +3331,10 @@
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B131" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C131" t="s">
         <v>322</v>
@@ -3335,10 +3342,10 @@
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B132" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C132" t="s">
         <v>322</v>
@@ -3346,10 +3353,10 @@
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B133" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C133" t="s">
         <v>322</v>
@@ -3357,10 +3364,10 @@
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B134" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C134" t="s">
         <v>322</v>
@@ -3368,10 +3375,10 @@
     </row>
     <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B135" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C135" t="s">
         <v>322</v>
@@ -3379,10 +3386,10 @@
     </row>
     <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B136" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C136" t="s">
         <v>322</v>
@@ -3390,10 +3397,10 @@
     </row>
     <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B137" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C137" t="s">
         <v>322</v>
@@ -3401,10 +3408,10 @@
     </row>
     <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B138" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C138" t="s">
         <v>322</v>
@@ -3412,32 +3419,32 @@
     </row>
     <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C139" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>248</v>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B140" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C140" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>249</v>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B141" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C141" t="s">
         <v>322</v>
@@ -3445,10 +3452,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C142" t="s">
         <v>322</v>
@@ -3456,10 +3463,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C143" t="s">
         <v>322</v>
@@ -3467,196 +3474,205 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B144" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C144" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B145" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C145" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B146" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C146" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C147" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B148" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C148" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B149" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C149" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B150" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C150" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C151" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>260</v>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>82</v>
       </c>
       <c r="B152" t="s">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="C152" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>261</v>
+        <v>323</v>
+      </c>
+      <c r="D152" t="s">
+        <v>324</v>
+      </c>
+      <c r="E152" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B153" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C153" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>82</v>
+        <v>323</v>
+      </c>
+      <c r="D153" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B154" t="s">
-        <v>83</v>
+        <v>315</v>
       </c>
       <c r="C154" t="s">
         <v>323</v>
       </c>
       <c r="D154" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C155" t="s">
         <v>323</v>
       </c>
       <c r="D155" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B156" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C156" t="s">
         <v>323</v>
       </c>
       <c r="D156" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C157" t="s">
         <v>323</v>
       </c>
       <c r="D157" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>204</v>
       </c>
       <c r="B158" t="s">
-        <v>317</v>
+        <v>205</v>
       </c>
       <c r="C158" t="s">
         <v>323</v>
       </c>
-      <c r="D158" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>118</v>
+      <c r="E158" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C159" t="s">
         <v>323</v>
       </c>
-      <c r="D159" t="s">
-        <v>119</v>
+      <c r="E159" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
